--- a/Web Dev/React/Notes.xlsx
+++ b/Web Dev/React/Notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>useEffect</t>
   </si>
@@ -24,8 +24,22 @@
     <t>callback function gets updated synchronously</t>
   </si>
   <si>
-    <t>Reason lifecycle method's should update synchronously
+    <r>
+      <t>Reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="C059"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> lifecycle method's should update synchronously
 Mount =&gt; Update =&gt; Unmount</t>
+    </r>
+  </si>
+  <si>
+    <t>Every useEffect callback add additional rendering cycle to react</t>
   </si>
   <si>
     <t>setState</t>
@@ -34,7 +48,24 @@
     <t>callback functon gets updated asynchronously (Batching)</t>
   </si>
   <si>
-    <t>Reason performance</t>
+    <r>
+      <t>Reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="C059"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> performance</t>
+    </r>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Single Responsibility Context Not too much in one context</t>
   </si>
 </sst>
 </file>
@@ -42,12 +73,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +87,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="C059"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="C059"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -64,71 +108,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,6 +147,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -147,14 +155,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +186,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -172,29 +201,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,13 +253,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,37 +367,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,13 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,109 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,17 +447,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,6 +486,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -462,199 +544,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,39 +1061,57 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14.6" customWidth="1"/>
-    <col min="2" max="2" width="47.4" customWidth="1"/>
-    <col min="3" max="3" width="47.1" customWidth="1"/>
+    <col min="1" max="1" width="14.6" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.0962962962963" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" ht="33.75" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
